--- a/teamdata.xlsx
+++ b/teamdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattsPC/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\Math245\FINAL PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA025F2C-1789-4243-B2CB-3CB1CD31578A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teamdata" sheetId="1" r:id="rId1"/>
@@ -47,36 +48,12 @@
     <t>FGA</t>
   </si>
   <si>
-    <t>FG%</t>
-  </si>
-  <si>
-    <t>3P</t>
-  </si>
-  <si>
-    <t>3PA</t>
-  </si>
-  <si>
-    <t>3P%</t>
-  </si>
-  <si>
-    <t>2P</t>
-  </si>
-  <si>
-    <t>2PA</t>
-  </si>
-  <si>
-    <t>2P%</t>
-  </si>
-  <si>
     <t>FT</t>
   </si>
   <si>
     <t>FTA</t>
   </si>
   <si>
-    <t>FT%</t>
-  </si>
-  <si>
     <t>ORB</t>
   </si>
   <si>
@@ -198,12 +175,36 @@
   </si>
   <si>
     <t>Playoff_Wins</t>
+  </si>
+  <si>
+    <t>FGP</t>
+  </si>
+  <si>
+    <t>ThreePP</t>
+  </si>
+  <si>
+    <t>TwoP</t>
+  </si>
+  <si>
+    <t>ThreeP</t>
+  </si>
+  <si>
+    <t>ThreePA</t>
+  </si>
+  <si>
+    <t>TwoPA</t>
+  </si>
+  <si>
+    <t>TwoPP</t>
+  </si>
+  <si>
+    <t>FTP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,20 +1038,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="26" max="26" width="11.1640625" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" customWidth="1"/>
     <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,144 +1071,144 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
       <c r="Z1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>82</v>
       </c>
       <c r="D2">
-        <v>19780</v>
+        <v>241.21951219512195</v>
       </c>
       <c r="E2">
-        <v>3532</v>
+        <v>43.073170731707314</v>
       </c>
       <c r="F2">
-        <v>7140</v>
+        <v>87.073170731707322</v>
       </c>
       <c r="G2">
         <v>0.495</v>
       </c>
       <c r="H2">
-        <v>982</v>
+        <v>11.975609756097562</v>
       </c>
       <c r="I2">
-        <v>2562</v>
+        <v>31.243902439024389</v>
       </c>
       <c r="J2">
         <v>0.38300000000000001</v>
       </c>
       <c r="K2">
-        <v>2550</v>
+        <v>31.097560975609756</v>
       </c>
       <c r="L2">
-        <v>4578</v>
+        <v>55.829268292682926</v>
       </c>
       <c r="M2">
         <v>0.55700000000000005</v>
       </c>
       <c r="N2">
-        <v>1457</v>
+        <v>17.76829268292683</v>
       </c>
       <c r="O2">
-        <v>1850</v>
+        <v>22.560975609756099</v>
       </c>
       <c r="P2">
         <v>0.78800000000000003</v>
       </c>
       <c r="Q2">
-        <v>770</v>
+        <v>9.3902439024390247</v>
       </c>
       <c r="R2">
-        <v>2873</v>
+        <v>35.036585365853661</v>
       </c>
       <c r="S2">
-        <v>3643</v>
+        <v>44.426829268292686</v>
       </c>
       <c r="T2">
-        <v>2491</v>
+        <v>30.378048780487806</v>
       </c>
       <c r="U2">
-        <v>785</v>
+        <v>9.5731707317073162</v>
       </c>
       <c r="V2">
-        <v>555</v>
+        <v>6.7682926829268295</v>
       </c>
       <c r="W2">
-        <v>1211</v>
+        <v>14.768292682926829</v>
       </c>
       <c r="X2">
-        <v>1585</v>
+        <v>19.329268292682926</v>
       </c>
       <c r="Y2">
-        <v>9503</v>
+        <v>115.89024390243902</v>
       </c>
       <c r="Z2">
         <v>16</v>
@@ -1216,81 +1217,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>82</v>
       </c>
       <c r="D3">
-        <v>19780</v>
+        <v>241.21951219512195</v>
       </c>
       <c r="E3">
-        <v>3305</v>
+        <v>40.304878048780488</v>
       </c>
       <c r="F3">
-        <v>7152</v>
+        <v>87.219512195121951</v>
       </c>
       <c r="G3">
         <v>0.46200000000000002</v>
       </c>
       <c r="H3">
-        <v>1181</v>
+        <v>14.402439024390244</v>
       </c>
       <c r="I3">
-        <v>3306</v>
+        <v>40.31707317073171</v>
       </c>
       <c r="J3">
         <v>0.35699999999999998</v>
       </c>
       <c r="K3">
-        <v>2124</v>
+        <v>25.902439024390244</v>
       </c>
       <c r="L3">
-        <v>3846</v>
+        <v>46.902439024390247</v>
       </c>
       <c r="M3">
         <v>0.55200000000000005</v>
       </c>
       <c r="N3">
-        <v>1667</v>
+        <v>20.329268292682926</v>
       </c>
       <c r="O3">
-        <v>2177</v>
+        <v>26.548780487804876</v>
       </c>
       <c r="P3">
         <v>0.76600000000000001</v>
       </c>
       <c r="Q3">
-        <v>892</v>
+        <v>10.878048780487806</v>
       </c>
       <c r="R3">
-        <v>2746</v>
+        <v>33.487804878048777</v>
       </c>
       <c r="S3">
-        <v>3638</v>
+        <v>44.365853658536587</v>
       </c>
       <c r="T3">
-        <v>2070</v>
+        <v>25.243902439024389</v>
       </c>
       <c r="U3">
-        <v>670</v>
+        <v>8.1707317073170724</v>
       </c>
       <c r="V3">
-        <v>352</v>
+        <v>4.2926829268292686</v>
       </c>
       <c r="W3">
-        <v>1240</v>
+        <v>15.121951219512194</v>
       </c>
       <c r="X3">
-        <v>1634</v>
+        <v>19.926829268292682</v>
       </c>
       <c r="Y3">
-        <v>9458</v>
+        <v>115.34146341463415</v>
       </c>
       <c r="Z3">
         <v>6</v>
@@ -1299,81 +1300,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>82</v>
       </c>
       <c r="D4">
-        <v>19755</v>
+        <v>240.91463414634146</v>
       </c>
       <c r="E4">
-        <v>3377</v>
+        <v>41.18292682926829</v>
       </c>
       <c r="F4">
-        <v>7194</v>
+        <v>87.731707317073173</v>
       </c>
       <c r="G4">
         <v>0.46899999999999997</v>
       </c>
       <c r="H4">
-        <v>870</v>
+        <v>10.609756097560975</v>
       </c>
       <c r="I4">
-        <v>2365</v>
+        <v>28.841463414634145</v>
       </c>
       <c r="J4">
         <v>0.36799999999999999</v>
       </c>
       <c r="K4">
-        <v>2507</v>
+        <v>30.573170731707318</v>
       </c>
       <c r="L4">
-        <v>4829</v>
+        <v>58.890243902439025</v>
       </c>
       <c r="M4">
         <v>0.51900000000000002</v>
       </c>
       <c r="N4">
-        <v>1537</v>
+        <v>18.743902439024389</v>
       </c>
       <c r="O4">
-        <v>1986</v>
+        <v>24.219512195121951</v>
       </c>
       <c r="P4">
         <v>0.77400000000000002</v>
       </c>
       <c r="Q4">
-        <v>966</v>
+        <v>11.780487804878049</v>
       </c>
       <c r="R4">
-        <v>2837</v>
+        <v>34.597560975609753</v>
       </c>
       <c r="S4">
-        <v>3803</v>
+        <v>46.378048780487802</v>
       </c>
       <c r="T4">
-        <v>2077</v>
+        <v>25.329268292682926</v>
       </c>
       <c r="U4">
-        <v>568</v>
+        <v>6.9268292682926829</v>
       </c>
       <c r="V4">
-        <v>323</v>
+        <v>3.9390243902439024</v>
       </c>
       <c r="W4">
-        <v>1226</v>
+        <v>14.951219512195122</v>
       </c>
       <c r="X4">
-        <v>1567</v>
+        <v>19.109756097560975</v>
       </c>
       <c r="Y4">
-        <v>9161</v>
+        <v>111.71951219512195</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1382,81 +1383,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>82</v>
       </c>
       <c r="D5">
-        <v>19880</v>
+        <v>242.4390243902439</v>
       </c>
       <c r="E5">
-        <v>3275</v>
+        <v>39.939024390243901</v>
       </c>
       <c r="F5">
-        <v>6963</v>
+        <v>84.91463414634147</v>
       </c>
       <c r="G5">
         <v>0.47</v>
       </c>
       <c r="H5">
-        <v>1067</v>
+        <v>13.012195121951219</v>
       </c>
       <c r="I5">
-        <v>2779</v>
+        <v>33.890243902439025</v>
       </c>
       <c r="J5">
         <v>0.38400000000000001</v>
       </c>
       <c r="K5">
-        <v>2208</v>
+        <v>26.926829268292682</v>
       </c>
       <c r="L5">
-        <v>4184</v>
+        <v>51.024390243902438</v>
       </c>
       <c r="M5">
         <v>0.52800000000000002</v>
       </c>
       <c r="N5">
-        <v>1431</v>
+        <v>17.451219512195124</v>
       </c>
       <c r="O5">
-        <v>1913</v>
+        <v>23.329268292682926</v>
       </c>
       <c r="P5">
         <v>0.748</v>
       </c>
       <c r="Q5">
-        <v>766</v>
+        <v>9.3414634146341466</v>
       </c>
       <c r="R5">
-        <v>2821</v>
+        <v>34.402439024390247</v>
       </c>
       <c r="S5">
-        <v>3587</v>
+        <v>43.743902439024389</v>
       </c>
       <c r="T5">
-        <v>1858</v>
+        <v>22.658536585365855</v>
       </c>
       <c r="U5">
-        <v>539</v>
+        <v>6.5731707317073171</v>
       </c>
       <c r="V5">
-        <v>327</v>
+        <v>3.9878048780487805</v>
       </c>
       <c r="W5">
-        <v>1121</v>
+        <v>13.670731707317072</v>
       </c>
       <c r="X5">
-        <v>1486</v>
+        <v>18.121951219512194</v>
       </c>
       <c r="Y5">
-        <v>9048</v>
+        <v>110.34146341463415</v>
       </c>
       <c r="Z5">
         <v>13</v>
@@ -1465,81 +1466,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>82</v>
       </c>
       <c r="D6">
-        <v>19855</v>
+        <v>242.13414634146341</v>
       </c>
       <c r="E6">
-        <v>3388</v>
+        <v>41.31707317073171</v>
       </c>
       <c r="F6">
-        <v>7137</v>
+        <v>87.036585365853654</v>
       </c>
       <c r="G6">
         <v>0.47499999999999998</v>
       </c>
       <c r="H6">
-        <v>756</v>
+        <v>9.2195121951219505</v>
       </c>
       <c r="I6">
-        <v>2030</v>
+        <v>24.756097560975611</v>
       </c>
       <c r="J6">
         <v>0.372</v>
       </c>
       <c r="K6">
-        <v>2632</v>
+        <v>32.097560975609753</v>
       </c>
       <c r="L6">
-        <v>5107</v>
+        <v>62.280487804878049</v>
       </c>
       <c r="M6">
         <v>0.51500000000000001</v>
       </c>
       <c r="N6">
-        <v>1421</v>
+        <v>17.329268292682926</v>
       </c>
       <c r="O6">
-        <v>1812</v>
+        <v>22.097560975609756</v>
       </c>
       <c r="P6">
         <v>0.78400000000000003</v>
       </c>
       <c r="Q6">
-        <v>843</v>
+        <v>10.280487804878049</v>
       </c>
       <c r="R6">
-        <v>2671</v>
+        <v>32.573170731707314</v>
       </c>
       <c r="S6">
-        <v>3514</v>
+        <v>42.853658536585364</v>
       </c>
       <c r="T6">
-        <v>1956</v>
+        <v>23.853658536585368</v>
       </c>
       <c r="U6">
-        <v>693</v>
+        <v>8.4512195121951219</v>
       </c>
       <c r="V6">
-        <v>336</v>
+        <v>4.0975609756097562</v>
       </c>
       <c r="W6">
-        <v>1162</v>
+        <v>14.170731707317072</v>
       </c>
       <c r="X6">
-        <v>1745</v>
+        <v>21.280487804878049</v>
       </c>
       <c r="Y6">
-        <v>8953</v>
+        <v>109.1829268292683</v>
       </c>
       <c r="Z6">
         <v>7</v>
@@ -1548,81 +1549,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>82</v>
       </c>
       <c r="D7">
-        <v>19755</v>
+        <v>240.91463414634146</v>
       </c>
       <c r="E7">
-        <v>3242</v>
+        <v>39.536585365853661</v>
       </c>
       <c r="F7">
-        <v>6820</v>
+        <v>83.170731707317074</v>
       </c>
       <c r="G7">
         <v>0.47499999999999998</v>
       </c>
       <c r="H7">
-        <v>841</v>
+        <v>10.25609756097561</v>
       </c>
       <c r="I7">
-        <v>2245</v>
+        <v>27.378048780487806</v>
       </c>
       <c r="J7">
         <v>0.375</v>
       </c>
       <c r="K7">
-        <v>2401</v>
+        <v>29.280487804878049</v>
       </c>
       <c r="L7">
-        <v>4575</v>
+        <v>55.792682926829265</v>
       </c>
       <c r="M7">
         <v>0.52500000000000002</v>
       </c>
       <c r="N7">
-        <v>1586</v>
+        <v>19.341463414634145</v>
       </c>
       <c r="O7">
-        <v>2128</v>
+        <v>25.951219512195124</v>
       </c>
       <c r="P7">
         <v>0.745</v>
       </c>
       <c r="Q7">
-        <v>738</v>
+        <v>9</v>
       </c>
       <c r="R7">
-        <v>2790</v>
+        <v>34.024390243902438</v>
       </c>
       <c r="S7">
-        <v>3528</v>
+        <v>43.024390243902438</v>
       </c>
       <c r="T7">
-        <v>1848</v>
+        <v>22.536585365853657</v>
       </c>
       <c r="U7">
-        <v>612</v>
+        <v>7.4634146341463419</v>
       </c>
       <c r="V7">
-        <v>347</v>
+        <v>4.2317073170731705</v>
       </c>
       <c r="W7">
-        <v>1062</v>
+        <v>12.951219512195122</v>
       </c>
       <c r="X7">
-        <v>1626</v>
+        <v>19.829268292682926</v>
       </c>
       <c r="Y7">
-        <v>8911</v>
+        <v>108.67073170731707</v>
       </c>
       <c r="Z7">
         <v>3</v>
@@ -1631,81 +1632,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>82</v>
       </c>
       <c r="D8">
-        <v>19755</v>
+        <v>240.91463414634146</v>
       </c>
       <c r="E8">
-        <v>3168</v>
+        <v>38.634146341463413</v>
       </c>
       <c r="F8">
-        <v>6978</v>
+        <v>85.097560975609753</v>
       </c>
       <c r="G8">
         <v>0.45400000000000001</v>
       </c>
       <c r="H8">
-        <v>985</v>
+        <v>12.012195121951219</v>
       </c>
       <c r="I8">
-        <v>2742</v>
+        <v>33.439024390243901</v>
       </c>
       <c r="J8">
         <v>0.35899999999999999</v>
       </c>
       <c r="K8">
-        <v>2183</v>
+        <v>26.621951219512194</v>
       </c>
       <c r="L8">
-        <v>4236</v>
+        <v>51.658536585365852</v>
       </c>
       <c r="M8">
         <v>0.51500000000000001</v>
       </c>
       <c r="N8">
-        <v>1536</v>
+        <v>18.73170731707317</v>
       </c>
       <c r="O8">
-        <v>1903</v>
+        <v>23.207317073170731</v>
       </c>
       <c r="P8">
         <v>0.80700000000000005</v>
       </c>
       <c r="Q8">
-        <v>744</v>
+        <v>9.0731707317073162</v>
       </c>
       <c r="R8">
-        <v>2698</v>
+        <v>32.902439024390247</v>
       </c>
       <c r="S8">
-        <v>3442</v>
+        <v>41.975609756097562</v>
       </c>
       <c r="T8">
-        <v>2069</v>
+        <v>25.23170731707317</v>
       </c>
       <c r="U8">
-        <v>617</v>
+        <v>7.524390243902439</v>
       </c>
       <c r="V8">
-        <v>340</v>
+        <v>4.1463414634146343</v>
       </c>
       <c r="W8">
-        <v>1088</v>
+        <v>13.268292682926829</v>
       </c>
       <c r="X8">
-        <v>1686</v>
+        <v>20.560975609756099</v>
       </c>
       <c r="Y8">
-        <v>8857</v>
+        <v>108.01219512195122</v>
       </c>
       <c r="Z8">
         <v>9</v>
@@ -1714,81 +1715,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>82</v>
       </c>
       <c r="D9">
-        <v>19930</v>
+        <v>243.04878048780489</v>
       </c>
       <c r="E9">
-        <v>3243</v>
+        <v>39.548780487804876</v>
       </c>
       <c r="F9">
-        <v>7059</v>
+        <v>86.08536585365853</v>
       </c>
       <c r="G9">
         <v>0.45900000000000002</v>
       </c>
       <c r="H9">
-        <v>852</v>
+        <v>10.390243902439025</v>
       </c>
       <c r="I9">
-        <v>2272</v>
+        <v>27.707317073170731</v>
       </c>
       <c r="J9">
         <v>0.375</v>
       </c>
       <c r="K9">
-        <v>2391</v>
+        <v>29.158536585365855</v>
       </c>
       <c r="L9">
-        <v>4787</v>
+        <v>58.378048780487802</v>
       </c>
       <c r="M9">
         <v>0.499</v>
       </c>
       <c r="N9">
-        <v>1513</v>
+        <v>18.451219512195124</v>
       </c>
       <c r="O9">
-        <v>1940</v>
+        <v>23.658536585365855</v>
       </c>
       <c r="P9">
         <v>0.78</v>
       </c>
       <c r="Q9">
-        <v>830</v>
+        <v>10.121951219512194</v>
       </c>
       <c r="R9">
-        <v>2750</v>
+        <v>33.536585365853661</v>
       </c>
       <c r="S9">
-        <v>3580</v>
+        <v>43.658536585365852</v>
       </c>
       <c r="T9">
-        <v>1733</v>
+        <v>21.134146341463413</v>
       </c>
       <c r="U9">
-        <v>574</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>408</v>
+        <v>4.975609756097561</v>
       </c>
       <c r="W9">
-        <v>1126</v>
+        <v>13.731707317073171</v>
       </c>
       <c r="X9">
-        <v>1736</v>
+        <v>21.170731707317074</v>
       </c>
       <c r="Y9">
-        <v>8851</v>
+        <v>107.9390243902439</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1797,81 +1798,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>82</v>
       </c>
       <c r="D10">
-        <v>19830</v>
+        <v>241.82926829268294</v>
       </c>
       <c r="E10">
-        <v>3270</v>
+        <v>39.878048780487802</v>
       </c>
       <c r="F10">
-        <v>7260</v>
+        <v>88.536585365853654</v>
       </c>
       <c r="G10">
         <v>0.45</v>
       </c>
       <c r="H10">
-        <v>615</v>
+        <v>7.5</v>
       </c>
       <c r="I10">
-        <v>1854</v>
+        <v>22.609756097560975</v>
       </c>
       <c r="J10">
         <v>0.33200000000000002</v>
       </c>
       <c r="K10">
-        <v>2655</v>
+        <v>32.378048780487802</v>
       </c>
       <c r="L10">
-        <v>5406</v>
+        <v>65.926829268292678</v>
       </c>
       <c r="M10">
         <v>0.49099999999999999</v>
       </c>
       <c r="N10">
-        <v>1676</v>
+        <v>20.439024390243901</v>
       </c>
       <c r="O10">
-        <v>2159</v>
+        <v>26.329268292682926</v>
       </c>
       <c r="P10">
         <v>0.77600000000000002</v>
       </c>
       <c r="Q10">
-        <v>976</v>
+        <v>11.902439024390244</v>
       </c>
       <c r="R10">
-        <v>2712</v>
+        <v>33.073170731707314</v>
       </c>
       <c r="S10">
-        <v>3688</v>
+        <v>44.975609756097562</v>
       </c>
       <c r="T10">
-        <v>1604</v>
+        <v>19.560975609756099</v>
       </c>
       <c r="U10">
-        <v>673</v>
+        <v>8.2073170731707314</v>
       </c>
       <c r="V10">
-        <v>399</v>
+        <v>4.8658536585365857</v>
       </c>
       <c r="W10">
-        <v>1265</v>
+        <v>15.426829268292684</v>
       </c>
       <c r="X10">
-        <v>2030</v>
+        <v>24.756097560975611</v>
       </c>
       <c r="Y10">
-        <v>8831</v>
+        <v>107.69512195121951</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1880,81 +1881,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>82</v>
       </c>
       <c r="D11">
-        <v>19780</v>
+        <v>241.21951219512195</v>
       </c>
       <c r="E11">
-        <v>3211</v>
+        <v>39.158536585365852</v>
       </c>
       <c r="F11">
-        <v>6918</v>
+        <v>84.365853658536579</v>
       </c>
       <c r="G11">
         <v>0.46400000000000002</v>
       </c>
       <c r="H11">
-        <v>725</v>
+        <v>8.8414634146341466</v>
       </c>
       <c r="I11">
-        <v>1996</v>
+        <v>24.341463414634145</v>
       </c>
       <c r="J11">
         <v>0.36299999999999999</v>
       </c>
       <c r="K11">
-        <v>2486</v>
+        <v>30.317073170731707</v>
       </c>
       <c r="L11">
-        <v>4922</v>
+        <v>60.024390243902438</v>
       </c>
       <c r="M11">
         <v>0.505</v>
       </c>
       <c r="N11">
-        <v>1615</v>
+        <v>19.695121951219512</v>
       </c>
       <c r="O11">
-        <v>2028</v>
+        <v>24.73170731707317</v>
       </c>
       <c r="P11">
         <v>0.79600000000000004</v>
       </c>
       <c r="Q11">
-        <v>871</v>
+        <v>10.621951219512194</v>
       </c>
       <c r="R11">
-        <v>2676</v>
+        <v>32.634146341463413</v>
       </c>
       <c r="S11">
-        <v>3547</v>
+        <v>43.256097560975611</v>
       </c>
       <c r="T11">
-        <v>1517</v>
+        <v>18.5</v>
       </c>
       <c r="U11">
-        <v>677</v>
+        <v>8.2560975609756095</v>
       </c>
       <c r="V11">
-        <v>400</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="W11">
-        <v>1041</v>
+        <v>12.695121951219512</v>
       </c>
       <c r="X11">
-        <v>1708</v>
+        <v>20.829268292682926</v>
       </c>
       <c r="Y11">
-        <v>8762</v>
+        <v>106.85365853658537</v>
       </c>
       <c r="Z11">
         <v>4</v>
@@ -1963,81 +1964,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>82</v>
       </c>
       <c r="D12">
-        <v>19805</v>
+        <v>241.52439024390245</v>
       </c>
       <c r="E12">
-        <v>3237</v>
+        <v>39.475609756097562</v>
       </c>
       <c r="F12">
-        <v>7169</v>
+        <v>87.426829268292678</v>
       </c>
       <c r="G12">
         <v>0.45200000000000001</v>
       </c>
       <c r="H12">
-        <v>692</v>
+        <v>8.4390243902439028</v>
       </c>
       <c r="I12">
-        <v>2116</v>
+        <v>25.804878048780488</v>
       </c>
       <c r="J12">
         <v>0.32700000000000001</v>
       </c>
       <c r="K12">
-        <v>2545</v>
+        <v>31.036585365853657</v>
       </c>
       <c r="L12">
-        <v>5053</v>
+        <v>61.621951219512198</v>
       </c>
       <c r="M12">
         <v>0.504</v>
       </c>
       <c r="N12">
-        <v>1575</v>
+        <v>19.207317073170731</v>
       </c>
       <c r="O12">
-        <v>2113</v>
+        <v>25.76829268292683</v>
       </c>
       <c r="P12">
         <v>0.745</v>
       </c>
       <c r="Q12">
-        <v>1002</v>
+        <v>12.219512195121951</v>
       </c>
       <c r="R12">
-        <v>2821</v>
+        <v>34.402439024390247</v>
       </c>
       <c r="S12">
-        <v>3823</v>
+        <v>46.621951219512198</v>
       </c>
       <c r="T12">
-        <v>1721</v>
+        <v>20.987804878048781</v>
       </c>
       <c r="U12">
-        <v>648</v>
+        <v>7.9024390243902438</v>
       </c>
       <c r="V12">
-        <v>408</v>
+        <v>4.975609756097561</v>
       </c>
       <c r="W12">
-        <v>1230</v>
+        <v>15</v>
       </c>
       <c r="X12">
-        <v>1715</v>
+        <v>20.914634146341463</v>
       </c>
       <c r="Y12">
-        <v>8741</v>
+        <v>106.59756097560975</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2046,81 +2047,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>82</v>
       </c>
       <c r="D13">
-        <v>19755</v>
+        <v>240.91463414634146</v>
       </c>
       <c r="E13">
-        <v>3102</v>
+        <v>37.829268292682926</v>
       </c>
       <c r="F13">
-        <v>6987</v>
+        <v>85.207317073170728</v>
       </c>
       <c r="G13">
         <v>0.44400000000000001</v>
       </c>
       <c r="H13">
-        <v>877</v>
+        <v>10.695121951219512</v>
       </c>
       <c r="I13">
-        <v>2591</v>
+        <v>31.597560975609756</v>
       </c>
       <c r="J13">
         <v>0.33800000000000002</v>
       </c>
       <c r="K13">
-        <v>2225</v>
+        <v>27.134146341463413</v>
       </c>
       <c r="L13">
-        <v>4396</v>
+        <v>53.609756097560975</v>
       </c>
       <c r="M13">
         <v>0.50600000000000001</v>
       </c>
       <c r="N13">
-        <v>1592</v>
+        <v>19.414634146341463</v>
       </c>
       <c r="O13">
-        <v>2020</v>
+        <v>24.634146341463413</v>
       </c>
       <c r="P13">
         <v>0.78800000000000003</v>
       </c>
       <c r="Q13">
-        <v>721</v>
+        <v>8.7926829268292686</v>
       </c>
       <c r="R13">
-        <v>2879</v>
+        <v>35.109756097560975</v>
       </c>
       <c r="S13">
-        <v>3600</v>
+        <v>43.902439024390247</v>
       </c>
       <c r="T13">
-        <v>1756</v>
+        <v>21.414634146341463</v>
       </c>
       <c r="U13">
-        <v>593</v>
+        <v>7.2317073170731705</v>
       </c>
       <c r="V13">
-        <v>387</v>
+        <v>4.7195121951219514</v>
       </c>
       <c r="W13">
-        <v>1356</v>
+        <v>16.536585365853657</v>
       </c>
       <c r="X13">
-        <v>1726</v>
+        <v>21.048780487804876</v>
       </c>
       <c r="Y13">
-        <v>8673</v>
+        <v>105.76829268292683</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2129,81 +2130,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>82</v>
       </c>
       <c r="D14">
-        <v>19805</v>
+        <v>241.52439024390245</v>
       </c>
       <c r="E14">
-        <v>3235</v>
+        <v>39.451219512195124</v>
       </c>
       <c r="F14">
-        <v>6922</v>
+        <v>84.41463414634147</v>
       </c>
       <c r="G14">
         <v>0.46700000000000003</v>
       </c>
       <c r="H14">
-        <v>601</v>
+        <v>7.3292682926829267</v>
       </c>
       <c r="I14">
-        <v>1723</v>
+        <v>21.012195121951219</v>
       </c>
       <c r="J14">
         <v>0.34899999999999998</v>
       </c>
       <c r="K14">
-        <v>2634</v>
+        <v>32.121951219512198</v>
       </c>
       <c r="L14">
-        <v>5199</v>
+        <v>63.402439024390247</v>
       </c>
       <c r="M14">
         <v>0.50700000000000001</v>
       </c>
       <c r="N14">
-        <v>1586</v>
+        <v>19.341463414634145</v>
       </c>
       <c r="O14">
-        <v>1986</v>
+        <v>24.219512195121951</v>
       </c>
       <c r="P14">
         <v>0.79900000000000004</v>
       </c>
       <c r="Q14">
-        <v>938</v>
+        <v>11.439024390243903</v>
       </c>
       <c r="R14">
-        <v>2540</v>
+        <v>30.975609756097562</v>
       </c>
       <c r="S14">
-        <v>3478</v>
+        <v>42.414634146341463</v>
       </c>
       <c r="T14">
-        <v>1940</v>
+        <v>23.658536585365855</v>
       </c>
       <c r="U14">
-        <v>654</v>
+        <v>7.975609756097561</v>
       </c>
       <c r="V14">
-        <v>370</v>
+        <v>4.5121951219512191</v>
       </c>
       <c r="W14">
-        <v>1150</v>
+        <v>14.024390243902438</v>
       </c>
       <c r="X14">
-        <v>1646</v>
+        <v>20.073170731707318</v>
       </c>
       <c r="Y14">
-        <v>8657</v>
+        <v>105.57317073170732</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2212,81 +2213,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>82</v>
       </c>
       <c r="D15">
-        <v>19805</v>
+        <v>241.52439024390245</v>
       </c>
       <c r="E15">
-        <v>3222</v>
+        <v>39.292682926829265</v>
       </c>
       <c r="F15">
-        <v>6864</v>
+        <v>83.707317073170728</v>
       </c>
       <c r="G15">
         <v>0.46899999999999997</v>
       </c>
       <c r="H15">
-        <v>753</v>
+        <v>9.1829268292682933</v>
       </c>
       <c r="I15">
-        <v>1927</v>
+        <v>23.5</v>
       </c>
       <c r="J15">
         <v>0.39100000000000001</v>
       </c>
       <c r="K15">
-        <v>2469</v>
+        <v>30.109756097560975</v>
       </c>
       <c r="L15">
-        <v>4937</v>
+        <v>60.207317073170735</v>
       </c>
       <c r="M15">
         <v>0.5</v>
       </c>
       <c r="N15">
-        <v>1440</v>
+        <v>17.560975609756099</v>
       </c>
       <c r="O15">
-        <v>1806</v>
+        <v>22.024390243902438</v>
       </c>
       <c r="P15">
         <v>0.79700000000000004</v>
       </c>
       <c r="Q15">
-        <v>821</v>
+        <v>10.012195121951219</v>
       </c>
       <c r="R15">
-        <v>2777</v>
+        <v>33.865853658536587</v>
       </c>
       <c r="S15">
-        <v>3598</v>
+        <v>43.878048780487802</v>
       </c>
       <c r="T15">
-        <v>1954</v>
+        <v>23.829268292682926</v>
       </c>
       <c r="U15">
-        <v>655</v>
+        <v>7.9878048780487809</v>
       </c>
       <c r="V15">
-        <v>484</v>
+        <v>5.9024390243902438</v>
       </c>
       <c r="W15">
-        <v>1101</v>
+        <v>13.426829268292684</v>
       </c>
       <c r="X15">
-        <v>1498</v>
+        <v>18.26829268292683</v>
       </c>
       <c r="Y15">
-        <v>8637</v>
+        <v>105.32926829268293</v>
       </c>
       <c r="Z15">
         <v>8</v>
@@ -2295,81 +2296,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>82</v>
       </c>
       <c r="D16">
-        <v>19855</v>
+        <v>242.13414634146341</v>
       </c>
       <c r="E16">
-        <v>3221</v>
+        <v>39.280487804878049</v>
       </c>
       <c r="F16">
-        <v>6931</v>
+        <v>84.524390243902445</v>
       </c>
       <c r="G16">
         <v>0.46500000000000002</v>
       </c>
       <c r="H16">
-        <v>709</v>
+        <v>8.6463414634146343</v>
       </c>
       <c r="I16">
-        <v>1885</v>
+        <v>22.987804878048781</v>
       </c>
       <c r="J16">
         <v>0.376</v>
       </c>
       <c r="K16">
-        <v>2512</v>
+        <v>30.634146341463413</v>
       </c>
       <c r="L16">
-        <v>5046</v>
+        <v>61.536585365853661</v>
       </c>
       <c r="M16">
         <v>0.498</v>
       </c>
       <c r="N16">
-        <v>1467</v>
+        <v>17.890243902439025</v>
       </c>
       <c r="O16">
-        <v>1811</v>
+        <v>22.085365853658537</v>
       </c>
       <c r="P16">
         <v>0.81</v>
       </c>
       <c r="Q16">
-        <v>742</v>
+        <v>9.0487804878048781</v>
       </c>
       <c r="R16">
-        <v>2702</v>
+        <v>32.951219512195124</v>
       </c>
       <c r="S16">
-        <v>3444</v>
+        <v>42</v>
       </c>
       <c r="T16">
-        <v>1844</v>
+        <v>22.487804878048781</v>
       </c>
       <c r="U16">
-        <v>669</v>
+        <v>8.1585365853658534</v>
       </c>
       <c r="V16">
-        <v>409</v>
+        <v>4.9878048780487809</v>
       </c>
       <c r="W16">
-        <v>1130</v>
+        <v>13.780487804878049</v>
       </c>
       <c r="X16">
-        <v>1597</v>
+        <v>19.475609756097562</v>
       </c>
       <c r="Y16">
-        <v>8618</v>
+        <v>105.09756097560975</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2378,81 +2379,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>82</v>
       </c>
       <c r="D17">
-        <v>19830</v>
+        <v>241.82926829268294</v>
       </c>
       <c r="E17">
-        <v>3093</v>
+        <v>37.719512195121951</v>
       </c>
       <c r="F17">
-        <v>7000</v>
+        <v>85.365853658536579</v>
       </c>
       <c r="G17">
         <v>0.442</v>
       </c>
       <c r="H17">
-        <v>824</v>
+        <v>10.048780487804878</v>
       </c>
       <c r="I17">
-        <v>2347</v>
+        <v>28.621951219512194</v>
       </c>
       <c r="J17">
         <v>0.35099999999999998</v>
       </c>
       <c r="K17">
-        <v>2269</v>
+        <v>27.670731707317074</v>
       </c>
       <c r="L17">
-        <v>4653</v>
+        <v>56.743902439024389</v>
       </c>
       <c r="M17">
         <v>0.48799999999999999</v>
       </c>
       <c r="N17">
-        <v>1591</v>
+        <v>19.402439024390244</v>
       </c>
       <c r="O17">
-        <v>1953</v>
+        <v>23.817073170731707</v>
       </c>
       <c r="P17">
         <v>0.81499999999999995</v>
       </c>
       <c r="Q17">
-        <v>721</v>
+        <v>8.7926829268292686</v>
       </c>
       <c r="R17">
-        <v>2853</v>
+        <v>34.792682926829265</v>
       </c>
       <c r="S17">
-        <v>3574</v>
+        <v>43.585365853658537</v>
       </c>
       <c r="T17">
-        <v>1891</v>
+        <v>23.060975609756099</v>
       </c>
       <c r="U17">
-        <v>571</v>
+        <v>6.9634146341463419</v>
       </c>
       <c r="V17">
-        <v>390</v>
+        <v>4.7560975609756095</v>
       </c>
       <c r="W17">
-        <v>942</v>
+        <v>11.487804878048781</v>
       </c>
       <c r="X17">
-        <v>1360</v>
+        <v>16.585365853658537</v>
       </c>
       <c r="Y17">
-        <v>8601</v>
+        <v>104.89024390243902</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2461,81 +2462,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>82</v>
       </c>
       <c r="D18">
-        <v>19705</v>
+        <v>240.30487804878049</v>
       </c>
       <c r="E18">
-        <v>3224</v>
+        <v>39.31707317073171</v>
       </c>
       <c r="F18">
-        <v>7164</v>
+        <v>87.365853658536579</v>
       </c>
       <c r="G18">
         <v>0.45</v>
       </c>
       <c r="H18">
-        <v>730</v>
+        <v>8.9024390243902438</v>
       </c>
       <c r="I18">
-        <v>2110</v>
+        <v>25.73170731707317</v>
       </c>
       <c r="J18">
         <v>0.34599999999999997</v>
       </c>
       <c r="K18">
-        <v>2494</v>
+        <v>30.414634146341463</v>
       </c>
       <c r="L18">
-        <v>5054</v>
+        <v>61.634146341463413</v>
       </c>
       <c r="M18">
         <v>0.49299999999999999</v>
       </c>
       <c r="N18">
-        <v>1397</v>
+        <v>17.036585365853657</v>
       </c>
       <c r="O18">
-        <v>1853</v>
+        <v>22.597560975609756</v>
       </c>
       <c r="P18">
         <v>0.754</v>
       </c>
       <c r="Q18">
-        <v>933</v>
+        <v>11.378048780487806</v>
       </c>
       <c r="R18">
-        <v>2636</v>
+        <v>32.146341463414636</v>
       </c>
       <c r="S18">
-        <v>3569</v>
+        <v>43.524390243902438</v>
       </c>
       <c r="T18">
-        <v>1716</v>
+        <v>20.926829268292682</v>
       </c>
       <c r="U18">
-        <v>674</v>
+        <v>8.2195121951219505</v>
       </c>
       <c r="V18">
-        <v>320</v>
+        <v>3.9024390243902438</v>
       </c>
       <c r="W18">
-        <v>1243</v>
+        <v>15.158536585365853</v>
       </c>
       <c r="X18">
-        <v>1698</v>
+        <v>20.707317073170731</v>
       </c>
       <c r="Y18">
-        <v>8575</v>
+        <v>104.57317073170732</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2544,81 +2545,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>82</v>
       </c>
       <c r="D19">
-        <v>19905</v>
+        <v>242.7439024390244</v>
       </c>
       <c r="E19">
-        <v>3210</v>
+        <v>39.146341463414636</v>
       </c>
       <c r="F19">
-        <v>7130</v>
+        <v>86.951219512195124</v>
       </c>
       <c r="G19">
         <v>0.45</v>
       </c>
       <c r="H19">
-        <v>768</v>
+        <v>9.3658536585365848</v>
       </c>
       <c r="I19">
-        <v>2196</v>
+        <v>26.780487804878049</v>
       </c>
       <c r="J19">
         <v>0.35</v>
       </c>
       <c r="K19">
-        <v>2442</v>
+        <v>29.780487804878049</v>
       </c>
       <c r="L19">
-        <v>4934</v>
+        <v>60.170731707317074</v>
       </c>
       <c r="M19">
         <v>0.495</v>
       </c>
       <c r="N19">
-        <v>1368</v>
+        <v>16.682926829268293</v>
       </c>
       <c r="O19">
-        <v>1825</v>
+        <v>22.256097560975611</v>
       </c>
       <c r="P19">
         <v>0.75</v>
       </c>
       <c r="Q19">
-        <v>703</v>
+        <v>8.5731707317073162</v>
       </c>
       <c r="R19">
-        <v>2879</v>
+        <v>35.109756097560975</v>
       </c>
       <c r="S19">
-        <v>3582</v>
+        <v>43.68292682926829</v>
       </c>
       <c r="T19">
-        <v>1869</v>
+        <v>22.792682926829269</v>
       </c>
       <c r="U19">
-        <v>638</v>
+        <v>7.7804878048780486</v>
       </c>
       <c r="V19">
-        <v>453</v>
+        <v>5.524390243902439</v>
       </c>
       <c r="W19">
-        <v>1054</v>
+        <v>12.853658536585366</v>
       </c>
       <c r="X19">
-        <v>1490</v>
+        <v>18.170731707317074</v>
       </c>
       <c r="Y19">
-        <v>8556</v>
+        <v>104.34146341463415</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2627,81 +2628,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>82</v>
       </c>
       <c r="D20">
-        <v>19855</v>
+        <v>242.13414634146341</v>
       </c>
       <c r="E20">
-        <v>3244</v>
+        <v>39.560975609756099</v>
       </c>
       <c r="F20">
-        <v>7256</v>
+        <v>88.487804878048777</v>
       </c>
       <c r="G20">
         <v>0.44700000000000001</v>
       </c>
       <c r="H20">
-        <v>704</v>
+        <v>8.5853658536585371</v>
       </c>
       <c r="I20">
-        <v>2022</v>
+        <v>24.658536585365855</v>
       </c>
       <c r="J20">
         <v>0.34799999999999998</v>
       </c>
       <c r="K20">
-        <v>2540</v>
+        <v>30.975609756097562</v>
       </c>
       <c r="L20">
-        <v>5234</v>
+        <v>63.829268292682926</v>
       </c>
       <c r="M20">
         <v>0.48499999999999999</v>
       </c>
       <c r="N20">
-        <v>1364</v>
+        <v>16.634146341463413</v>
       </c>
       <c r="O20">
-        <v>1731</v>
+        <v>21.109756097560975</v>
       </c>
       <c r="P20">
         <v>0.78800000000000003</v>
       </c>
       <c r="Q20">
-        <v>983</v>
+        <v>11.987804878048781</v>
       </c>
       <c r="R20">
-        <v>2723</v>
+        <v>33.207317073170735</v>
       </c>
       <c r="S20">
-        <v>3706</v>
+        <v>45.195121951219512</v>
       </c>
       <c r="T20">
-        <v>1786</v>
+        <v>21.780487804878049</v>
       </c>
       <c r="U20">
-        <v>581</v>
+        <v>7.0853658536585362</v>
       </c>
       <c r="V20">
-        <v>455</v>
+        <v>5.5487804878048781</v>
       </c>
       <c r="W20">
-        <v>1139</v>
+        <v>13.890243902439025</v>
       </c>
       <c r="X20">
-        <v>1668</v>
+        <v>20.341463414634145</v>
       </c>
       <c r="Y20">
-        <v>8556</v>
+        <v>104.34146341463415</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2710,81 +2711,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>82</v>
       </c>
       <c r="D21">
-        <v>19780</v>
+        <v>241.21951219512195</v>
       </c>
       <c r="E21">
-        <v>3182</v>
+        <v>38.804878048780488</v>
       </c>
       <c r="F21">
-        <v>6715</v>
+        <v>81.890243902439025</v>
       </c>
       <c r="G21">
         <v>0.47399999999999998</v>
       </c>
       <c r="H21">
-        <v>720</v>
+        <v>8.7804878048780495</v>
       </c>
       <c r="I21">
-        <v>1946</v>
+        <v>23.73170731707317</v>
       </c>
       <c r="J21">
         <v>0.37</v>
       </c>
       <c r="K21">
-        <v>2462</v>
+        <v>30.024390243902438</v>
       </c>
       <c r="L21">
-        <v>4769</v>
+        <v>58.158536585365852</v>
       </c>
       <c r="M21">
         <v>0.51600000000000001</v>
       </c>
       <c r="N21">
-        <v>1413</v>
+        <v>17.23170731707317</v>
       </c>
       <c r="O21">
-        <v>1839</v>
+        <v>22.426829268292682</v>
       </c>
       <c r="P21">
         <v>0.76800000000000002</v>
       </c>
       <c r="Q21">
-        <v>723</v>
+        <v>8.8170731707317067</v>
       </c>
       <c r="R21">
-        <v>2589</v>
+        <v>31.573170731707318</v>
       </c>
       <c r="S21">
-        <v>3312</v>
+        <v>40.390243902439025</v>
       </c>
       <c r="T21">
-        <v>1984</v>
+        <v>24.195121951219512</v>
       </c>
       <c r="U21">
-        <v>666</v>
+        <v>8.1219512195121943</v>
       </c>
       <c r="V21">
-        <v>436</v>
+        <v>5.3170731707317076</v>
       </c>
       <c r="W21">
-        <v>1145</v>
+        <v>13.963414634146341</v>
       </c>
       <c r="X21">
-        <v>1660</v>
+        <v>20.243902439024389</v>
       </c>
       <c r="Y21">
-        <v>8497</v>
+        <v>103.6219512195122</v>
       </c>
       <c r="Z21">
         <v>2</v>
@@ -2793,81 +2794,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>82</v>
       </c>
       <c r="D22">
-        <v>19780</v>
+        <v>241.21951219512195</v>
       </c>
       <c r="E22">
-        <v>3202</v>
+        <v>39.048780487804876</v>
       </c>
       <c r="F22">
-        <v>7037</v>
+        <v>85.817073170731703</v>
       </c>
       <c r="G22">
         <v>0.45500000000000002</v>
       </c>
       <c r="H22">
-        <v>808</v>
+        <v>9.8536585365853657</v>
       </c>
       <c r="I22">
-        <v>2213</v>
+        <v>26.987804878048781</v>
       </c>
       <c r="J22">
         <v>0.36499999999999999</v>
       </c>
       <c r="K22">
-        <v>2394</v>
+        <v>29.195121951219512</v>
       </c>
       <c r="L22">
-        <v>4824</v>
+        <v>58.829268292682926</v>
       </c>
       <c r="M22">
         <v>0.496</v>
       </c>
       <c r="N22">
-        <v>1248</v>
+        <v>15.219512195121951</v>
       </c>
       <c r="O22">
-        <v>1768</v>
+        <v>21.560975609756099</v>
       </c>
       <c r="P22">
         <v>0.70599999999999996</v>
       </c>
       <c r="Q22">
-        <v>872</v>
+        <v>10.634146341463415</v>
       </c>
       <c r="R22">
-        <v>2705</v>
+        <v>32.987804878048777</v>
       </c>
       <c r="S22">
-        <v>3577</v>
+        <v>43.621951219512198</v>
       </c>
       <c r="T22">
-        <v>1742</v>
+        <v>21.243902439024389</v>
       </c>
       <c r="U22">
-        <v>588</v>
+        <v>7.1707317073170733</v>
       </c>
       <c r="V22">
-        <v>469</v>
+        <v>5.7195121951219514</v>
       </c>
       <c r="W22">
-        <v>1102</v>
+        <v>13.439024390243903</v>
       </c>
       <c r="X22">
-        <v>1680</v>
+        <v>20.487804878048781</v>
       </c>
       <c r="Y22">
-        <v>8460</v>
+        <v>103.17073170731707</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2876,81 +2877,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>82</v>
       </c>
       <c r="D23">
-        <v>19880</v>
+        <v>242.4390243902439</v>
       </c>
       <c r="E23">
-        <v>3123</v>
+        <v>38.085365853658537</v>
       </c>
       <c r="F23">
-        <v>6918</v>
+        <v>84.365853658536579</v>
       </c>
       <c r="G23">
         <v>0.45100000000000001</v>
       </c>
       <c r="H23">
-        <v>729</v>
+        <v>8.8902439024390247</v>
       </c>
       <c r="I23">
-        <v>2137</v>
+        <v>26.060975609756099</v>
       </c>
       <c r="J23">
         <v>0.34100000000000003</v>
       </c>
       <c r="K23">
-        <v>2394</v>
+        <v>29.195121951219512</v>
       </c>
       <c r="L23">
-        <v>4781</v>
+        <v>58.304878048780488</v>
       </c>
       <c r="M23">
         <v>0.501</v>
       </c>
       <c r="N23">
-        <v>1484</v>
+        <v>18.097560975609756</v>
       </c>
       <c r="O23">
-        <v>2039</v>
+        <v>24.865853658536587</v>
       </c>
       <c r="P23">
         <v>0.72799999999999998</v>
       </c>
       <c r="Q23">
-        <v>842</v>
+        <v>10.268292682926829</v>
       </c>
       <c r="R23">
-        <v>2793</v>
+        <v>34.060975609756099</v>
       </c>
       <c r="S23">
-        <v>3635</v>
+        <v>44.329268292682926</v>
       </c>
       <c r="T23">
-        <v>1938</v>
+        <v>23.634146341463413</v>
       </c>
       <c r="U23">
-        <v>672</v>
+        <v>8.1951219512195124</v>
       </c>
       <c r="V23">
-        <v>397</v>
+        <v>4.8414634146341466</v>
       </c>
       <c r="W23">
-        <v>1294</v>
+        <v>15.780487804878049</v>
       </c>
       <c r="X23">
-        <v>1491</v>
+        <v>18.182926829268293</v>
       </c>
       <c r="Y23">
-        <v>8459</v>
+        <v>103.15853658536585</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2959,81 +2960,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>82</v>
       </c>
       <c r="D24">
-        <v>19780</v>
+        <v>241.21951219512195</v>
       </c>
       <c r="E24">
-        <v>3169</v>
+        <v>38.646341463414636</v>
       </c>
       <c r="F24">
-        <v>7141</v>
+        <v>87.08536585365853</v>
       </c>
       <c r="G24">
         <v>0.44400000000000001</v>
       </c>
       <c r="H24">
-        <v>623</v>
+        <v>7.5975609756097562</v>
       </c>
       <c r="I24">
-        <v>1831</v>
+        <v>22.329268292682926</v>
       </c>
       <c r="J24">
         <v>0.34</v>
       </c>
       <c r="K24">
-        <v>2546</v>
+        <v>31.048780487804876</v>
       </c>
       <c r="L24">
-        <v>5310</v>
+        <v>64.756097560975604</v>
       </c>
       <c r="M24">
         <v>0.47899999999999998</v>
       </c>
       <c r="N24">
-        <v>1474</v>
+        <v>17.975609756097562</v>
       </c>
       <c r="O24">
-        <v>1848</v>
+        <v>22.536585365853657</v>
       </c>
       <c r="P24">
         <v>0.79800000000000004</v>
       </c>
       <c r="Q24">
-        <v>999</v>
+        <v>12.182926829268293</v>
       </c>
       <c r="R24">
-        <v>2797</v>
+        <v>34.109756097560975</v>
       </c>
       <c r="S24">
-        <v>3796</v>
+        <v>46.292682926829265</v>
       </c>
       <c r="T24">
-        <v>1851</v>
+        <v>22.573170731707318</v>
       </c>
       <c r="U24">
-        <v>643</v>
+        <v>7.8414634146341466</v>
       </c>
       <c r="V24">
-        <v>393</v>
+        <v>4.7926829268292686</v>
       </c>
       <c r="W24">
-        <v>1112</v>
+        <v>13.560975609756097</v>
       </c>
       <c r="X24">
-        <v>1455</v>
+        <v>17.743902439024389</v>
       </c>
       <c r="Y24">
-        <v>8435</v>
+        <v>102.86585365853658</v>
       </c>
       <c r="Z24">
         <v>2</v>
@@ -3042,81 +3043,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>82</v>
       </c>
       <c r="D25">
-        <v>19880</v>
+        <v>242.4390243902439</v>
       </c>
       <c r="E25">
-        <v>3105</v>
+        <v>37.865853658536587</v>
       </c>
       <c r="F25">
-        <v>6734</v>
+        <v>82.121951219512198</v>
       </c>
       <c r="G25">
         <v>0.46100000000000002</v>
       </c>
       <c r="H25">
-        <v>737</v>
+        <v>8.9878048780487809</v>
       </c>
       <c r="I25">
-        <v>1960</v>
+        <v>23.902439024390244</v>
       </c>
       <c r="J25">
         <v>0.376</v>
       </c>
       <c r="K25">
-        <v>2368</v>
+        <v>28.878048780487806</v>
       </c>
       <c r="L25">
-        <v>4774</v>
+        <v>58.219512195121951</v>
       </c>
       <c r="M25">
         <v>0.496</v>
       </c>
       <c r="N25">
-        <v>1483</v>
+        <v>18.085365853658537</v>
       </c>
       <c r="O25">
-        <v>1913</v>
+        <v>23.329268292682926</v>
       </c>
       <c r="P25">
         <v>0.77500000000000002</v>
       </c>
       <c r="Q25">
-        <v>715</v>
+        <v>8.7195121951219505</v>
       </c>
       <c r="R25">
-        <v>2652</v>
+        <v>32.341463414634148</v>
       </c>
       <c r="S25">
-        <v>3367</v>
+        <v>41.060975609756099</v>
       </c>
       <c r="T25">
-        <v>1844</v>
+        <v>22.487804878048781</v>
       </c>
       <c r="U25">
-        <v>627</v>
+        <v>7.6463414634146343</v>
       </c>
       <c r="V25">
-        <v>324</v>
+        <v>3.9512195121951219</v>
       </c>
       <c r="W25">
-        <v>1201</v>
+        <v>14.646341463414634</v>
       </c>
       <c r="X25">
-        <v>1667</v>
+        <v>20.329268292682926</v>
       </c>
       <c r="Y25">
-        <v>8430</v>
+        <v>102.80487804878049</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3125,81 +3126,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>82</v>
       </c>
       <c r="D26">
-        <v>19830</v>
+        <v>241.82926829268294</v>
       </c>
       <c r="E26">
-        <v>3088</v>
+        <v>37.658536585365852</v>
       </c>
       <c r="F26">
-        <v>6992</v>
+        <v>85.268292682926827</v>
       </c>
       <c r="G26">
         <v>0.442</v>
       </c>
       <c r="H26">
-        <v>831</v>
+        <v>10.134146341463415</v>
       </c>
       <c r="I26">
-        <v>2443</v>
+        <v>29.792682926829269</v>
       </c>
       <c r="J26">
         <v>0.34</v>
       </c>
       <c r="K26">
-        <v>2257</v>
+        <v>27.524390243902438</v>
       </c>
       <c r="L26">
-        <v>4549</v>
+        <v>55.475609756097562</v>
       </c>
       <c r="M26">
         <v>0.496</v>
       </c>
       <c r="N26">
-        <v>1393</v>
+        <v>16.987804878048781</v>
       </c>
       <c r="O26">
-        <v>1806</v>
+        <v>22.024390243902438</v>
       </c>
       <c r="P26">
         <v>0.77100000000000002</v>
       </c>
       <c r="Q26">
-        <v>807</v>
+        <v>9.8414634146341466</v>
       </c>
       <c r="R26">
-        <v>2706</v>
+        <v>33</v>
       </c>
       <c r="S26">
-        <v>3513</v>
+        <v>42.841463414634148</v>
       </c>
       <c r="T26">
-        <v>1949</v>
+        <v>23.76829268292683</v>
       </c>
       <c r="U26">
-        <v>692</v>
+        <v>8.4390243902439028</v>
       </c>
       <c r="V26">
-        <v>420</v>
+        <v>5.1219512195121952</v>
       </c>
       <c r="W26">
-        <v>1366</v>
+        <v>16.658536585365855</v>
       </c>
       <c r="X26">
-        <v>1793</v>
+        <v>21.865853658536587</v>
       </c>
       <c r="Y26">
-        <v>8400</v>
+        <v>102.4390243902439</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3208,81 +3209,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>82</v>
       </c>
       <c r="D27">
-        <v>19805</v>
+        <v>241.52439024390245</v>
       </c>
       <c r="E27">
-        <v>3269</v>
+        <v>39.865853658536587</v>
       </c>
       <c r="F27">
-        <v>7282</v>
+        <v>88.804878048780495</v>
       </c>
       <c r="G27">
         <v>0.44900000000000001</v>
       </c>
       <c r="H27">
-        <v>631</v>
+        <v>7.6951219512195124</v>
       </c>
       <c r="I27">
-        <v>1915</v>
+        <v>23.353658536585368</v>
       </c>
       <c r="J27">
         <v>0.33</v>
       </c>
       <c r="K27">
-        <v>2638</v>
+        <v>32.170731707317074</v>
       </c>
       <c r="L27">
-        <v>5367</v>
+        <v>65.451219512195124</v>
       </c>
       <c r="M27">
         <v>0.49199999999999999</v>
       </c>
       <c r="N27">
-        <v>1140</v>
+        <v>13.902439024390244</v>
       </c>
       <c r="O27">
-        <v>1586</v>
+        <v>19.341463414634145</v>
       </c>
       <c r="P27">
         <v>0.71899999999999997</v>
       </c>
       <c r="Q27">
-        <v>908</v>
+        <v>11.073170731707316</v>
       </c>
       <c r="R27">
-        <v>2838</v>
+        <v>34.609756097560975</v>
       </c>
       <c r="S27">
-        <v>3746</v>
+        <v>45.68292682926829</v>
       </c>
       <c r="T27">
-        <v>1732</v>
+        <v>21.121951219512194</v>
       </c>
       <c r="U27">
-        <v>574</v>
+        <v>7</v>
       </c>
       <c r="V27">
-        <v>310</v>
+        <v>3.7804878048780486</v>
       </c>
       <c r="W27">
-        <v>973</v>
+        <v>11.865853658536585</v>
       </c>
       <c r="X27">
-        <v>1467</v>
+        <v>17.890243902439025</v>
       </c>
       <c r="Y27">
-        <v>8309</v>
+        <v>101.32926829268293</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3291,81 +3292,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>82</v>
       </c>
       <c r="D28">
-        <v>19805</v>
+        <v>241.52439024390245</v>
       </c>
       <c r="E28">
-        <v>3139</v>
+        <v>38.280487804878049</v>
       </c>
       <c r="F28">
-        <v>7133</v>
+        <v>86.987804878048777</v>
       </c>
       <c r="G28">
         <v>0.44</v>
       </c>
       <c r="H28">
-        <v>701</v>
+        <v>8.5487804878048781</v>
       </c>
       <c r="I28">
-        <v>2139</v>
+        <v>26.085365853658537</v>
       </c>
       <c r="J28">
         <v>0.32800000000000001</v>
       </c>
       <c r="K28">
-        <v>2438</v>
+        <v>29.73170731707317</v>
       </c>
       <c r="L28">
-        <v>4994</v>
+        <v>60.902439024390247</v>
       </c>
       <c r="M28">
         <v>0.48799999999999999</v>
       </c>
       <c r="N28">
-        <v>1309</v>
+        <v>15.963414634146341</v>
       </c>
       <c r="O28">
-        <v>1753</v>
+        <v>21.378048780487806</v>
       </c>
       <c r="P28">
         <v>0.747</v>
       </c>
       <c r="Q28">
-        <v>807</v>
+        <v>9.8414634146341466</v>
       </c>
       <c r="R28">
-        <v>2734</v>
+        <v>33.341463414634148</v>
       </c>
       <c r="S28">
-        <v>3541</v>
+        <v>43.18292682926829</v>
       </c>
       <c r="T28">
-        <v>1820</v>
+        <v>22.195121951219512</v>
       </c>
       <c r="U28">
-        <v>580</v>
+        <v>7.0731707317073171</v>
       </c>
       <c r="V28">
-        <v>396</v>
+        <v>4.8292682926829267</v>
       </c>
       <c r="W28">
-        <v>1091</v>
+        <v>13.304878048780488</v>
       </c>
       <c r="X28">
-        <v>1584</v>
+        <v>19.317073170731707</v>
       </c>
       <c r="Y28">
-        <v>8288</v>
+        <v>101.07317073170732</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3374,81 +3375,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>82</v>
       </c>
       <c r="D29">
-        <v>19755</v>
+        <v>240.91463414634146</v>
       </c>
       <c r="E29">
-        <v>3033</v>
+        <v>36.987804878048777</v>
       </c>
       <c r="F29">
-        <v>6515</v>
+        <v>79.451219512195124</v>
       </c>
       <c r="G29">
         <v>0.46600000000000003</v>
       </c>
       <c r="H29">
-        <v>791</v>
+        <v>9.6463414634146343</v>
       </c>
       <c r="I29">
-        <v>2128</v>
+        <v>25.951219512195124</v>
       </c>
       <c r="J29">
         <v>0.372</v>
       </c>
       <c r="K29">
-        <v>2242</v>
+        <v>27.341463414634145</v>
       </c>
       <c r="L29">
-        <v>4387</v>
+        <v>53.5</v>
       </c>
       <c r="M29">
         <v>0.51100000000000001</v>
       </c>
       <c r="N29">
-        <v>1401</v>
+        <v>17.085365853658537</v>
       </c>
       <c r="O29">
-        <v>1875</v>
+        <v>22.865853658536587</v>
       </c>
       <c r="P29">
         <v>0.747</v>
       </c>
       <c r="Q29">
-        <v>771</v>
+        <v>9.4024390243902438</v>
       </c>
       <c r="R29">
-        <v>2774</v>
+        <v>33.829268292682926</v>
       </c>
       <c r="S29">
-        <v>3545</v>
+        <v>43.231707317073173</v>
       </c>
       <c r="T29">
-        <v>1651</v>
+        <v>20.134146341463413</v>
       </c>
       <c r="U29">
-        <v>550</v>
+        <v>6.7073170731707314</v>
       </c>
       <c r="V29">
-        <v>410</v>
+        <v>5</v>
       </c>
       <c r="W29">
-        <v>1118</v>
+        <v>13.634146341463415</v>
       </c>
       <c r="X29">
-        <v>1545</v>
+        <v>18.841463414634145</v>
       </c>
       <c r="Y29">
-        <v>8258</v>
+        <v>100.70731707317073</v>
       </c>
       <c r="Z29">
         <v>4</v>
@@ -3457,81 +3458,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>82</v>
       </c>
       <c r="D30">
-        <v>19905</v>
+        <v>242.7439024390244</v>
       </c>
       <c r="E30">
-        <v>2984</v>
+        <v>36.390243902439025</v>
       </c>
       <c r="F30">
-        <v>6854</v>
+        <v>83.58536585365853</v>
       </c>
       <c r="G30">
         <v>0.435</v>
       </c>
       <c r="H30">
-        <v>767</v>
+        <v>9.3536585365853657</v>
       </c>
       <c r="I30">
-        <v>2169</v>
+        <v>26.451219512195124</v>
       </c>
       <c r="J30">
         <v>0.35399999999999998</v>
       </c>
       <c r="K30">
-        <v>2217</v>
+        <v>27.036585365853657</v>
       </c>
       <c r="L30">
-        <v>4685</v>
+        <v>57.134146341463413</v>
       </c>
       <c r="M30">
         <v>0.47299999999999998</v>
       </c>
       <c r="N30">
-        <v>1504</v>
+        <v>18.341463414634145</v>
       </c>
       <c r="O30">
-        <v>1918</v>
+        <v>23.390243902439025</v>
       </c>
       <c r="P30">
         <v>0.78400000000000003</v>
       </c>
       <c r="Q30">
-        <v>886</v>
+        <v>10.804878048780488</v>
       </c>
       <c r="R30">
-        <v>2621</v>
+        <v>31.963414634146343</v>
       </c>
       <c r="S30">
-        <v>3507</v>
+        <v>42.768292682926827</v>
       </c>
       <c r="T30">
-        <v>1744</v>
+        <v>21.26829268292683</v>
       </c>
       <c r="U30">
-        <v>653</v>
+        <v>7.9634146341463419</v>
       </c>
       <c r="V30">
-        <v>344</v>
+        <v>4.1951219512195124</v>
       </c>
       <c r="W30">
-        <v>1059</v>
+        <v>12.914634146341463</v>
       </c>
       <c r="X30">
-        <v>1840</v>
+        <v>22.439024390243901</v>
       </c>
       <c r="Y30">
-        <v>8239</v>
+        <v>100.47560975609755</v>
       </c>
       <c r="Z30">
         <v>2</v>
@@ -3540,83 +3541,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>82</v>
       </c>
       <c r="D31">
-        <v>19780</v>
+        <v>241.21951219512195</v>
       </c>
       <c r="E31">
-        <v>2968</v>
+        <v>36.195121951219512</v>
       </c>
       <c r="F31">
-        <v>6750</v>
+        <v>82.317073170731703</v>
       </c>
       <c r="G31">
         <v>0.44</v>
       </c>
       <c r="H31">
-        <v>878</v>
+        <v>10.707317073170731</v>
       </c>
       <c r="I31">
-        <v>2473</v>
+        <v>30.158536585365855</v>
       </c>
       <c r="J31">
         <v>0.35499999999999998</v>
       </c>
       <c r="K31">
-        <v>2090</v>
+        <v>25.487804878048781</v>
       </c>
       <c r="L31">
-        <v>4277</v>
+        <v>52.158536585365852</v>
       </c>
       <c r="M31">
         <v>0.48899999999999999</v>
       </c>
       <c r="N31">
-        <v>1215</v>
+        <v>14.817073170731707</v>
       </c>
       <c r="O31">
-        <v>1516</v>
+        <v>18.487804878048781</v>
       </c>
       <c r="P31">
         <v>0.80100000000000005</v>
       </c>
       <c r="Q31">
-        <v>647</v>
+        <v>7.8902439024390247</v>
       </c>
       <c r="R31">
-        <v>2516</v>
+        <v>30.682926829268293</v>
       </c>
       <c r="S31">
-        <v>3163</v>
+        <v>38.573170731707314</v>
       </c>
       <c r="T31">
-        <v>1705</v>
+        <v>20.792682926829269</v>
       </c>
       <c r="U31">
-        <v>614</v>
+        <v>7.4878048780487809</v>
       </c>
       <c r="V31">
-        <v>307</v>
+        <v>3.7439024390243905</v>
       </c>
       <c r="W31">
-        <v>972</v>
+        <v>11.853658536585366</v>
       </c>
       <c r="X31">
-        <v>1567</v>
+        <v>19.109756097560975</v>
       </c>
       <c r="Y31">
-        <v>8029</v>
+        <v>97.91463414634147</v>
       </c>
       <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
         <v>0</v>
       </c>
     </row>
